--- a/data/trans_camb/CoTrAQ_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/CoTrAQ_R-Edad-trans_camb.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-23.19080622227432</v>
+        <v>-21.35920991216923</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-35.13325325920953</v>
+        <v>-34.58058695175044</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-23.97297040445736</v>
+        <v>-24.4638082873795</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.06216978314415</v>
+        <v>12.35297811647731</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-7.714363774205591</v>
+        <v>-7.095378876794153</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-2.210755870335662</v>
+        <v>-2.51693517970756</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3977318901673357</v>
+        <v>-0.3819037563831144</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4800822784571956</v>
+        <v>-0.4667166307847966</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.379510106481038</v>
+        <v>-0.3773731003656232</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2444584933894955</v>
+        <v>0.287919109721948</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.1232563768416164</v>
+        <v>-0.1115256061702416</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.04689448700816531</v>
+        <v>-0.04717028885422961</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-24.55114574995794</v>
+        <v>-24.60865087117177</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-23.19288560388527</v>
+        <v>-23.12623950365651</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-21.85318922168145</v>
+        <v>-21.92436004665445</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-10.12878841635199</v>
+        <v>-8.710172615203719</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-5.955657794592542</v>
+        <v>-6.98281527328892</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-10.5604722835566</v>
+        <v>-11.23197244310737</v>
       </c>
     </row>
     <row r="13">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3498585723267294</v>
+        <v>-0.3467284714012801</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3383423595748592</v>
+        <v>-0.3327794664202431</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3126374183866889</v>
+        <v>-0.3124911688396859</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.1596066671073365</v>
+        <v>-0.1408036467988649</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.09647591697950571</v>
+        <v>-0.1162779750862674</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1624479765766322</v>
+        <v>-0.1718806455595568</v>
       </c>
     </row>
     <row r="16">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-24.22479387210756</v>
+        <v>-24.34794364793894</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-17.68504506519191</v>
+        <v>-18.13042532825151</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-19.3172743541227</v>
+        <v>-19.65562001950639</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-10.30979481608809</v>
+        <v>-10.80943134802775</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-1.842888661977981</v>
+        <v>-1.329971313420164</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-9.202221334554759</v>
+        <v>-9.355095678543609</v>
       </c>
     </row>
     <row r="19">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3250748469838362</v>
+        <v>-0.3231467278875393</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.267273147793851</v>
+        <v>-0.2691029152939485</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2755603573712657</v>
+        <v>-0.2804329203612532</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.1505165983291374</v>
+        <v>-0.1588020114759587</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.03436235674546514</v>
+        <v>-0.02305903563477654</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.1396087999749316</v>
+        <v>-0.1411403394369905</v>
       </c>
     </row>
     <row r="22">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-24.76042810949977</v>
+        <v>-24.95744892835565</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-26.12968938588581</v>
+        <v>-25.83384052489847</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-23.8721105964563</v>
+        <v>-23.49345409494858</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-10.13700283796799</v>
+        <v>-10.87012840735343</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-7.009206409982101</v>
+        <v>-6.187748916198655</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-12.16724866745416</v>
+        <v>-11.79601622384303</v>
       </c>
     </row>
     <row r="25">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3174018575356687</v>
+        <v>-0.3165849127287906</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3745473924206931</v>
+        <v>-0.3692091577560139</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3168846805912687</v>
+        <v>-0.3132702232759554</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.1417190205648748</v>
+        <v>-0.1468696056003641</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.1138657720659884</v>
+        <v>-0.09699822766051606</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1727666647752754</v>
+        <v>-0.1703788856769477</v>
       </c>
     </row>
     <row r="28">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-27.21130151612595</v>
+        <v>-27.53252513105445</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-45.06260280662504</v>
+        <v>-45.52781513790607</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-31.66006572520243</v>
+        <v>-31.32353889881539</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-5.371614351986821</v>
+        <v>-5.233249274528073</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-14.42538469242141</v>
+        <v>-14.66341621411638</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-12.54661049093367</v>
+        <v>-13.35109577538398</v>
       </c>
     </row>
     <row r="31">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.3479673996654657</v>
+        <v>-0.3398679999164513</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5670577646081901</v>
+        <v>-0.5691008418782874</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.4021354681649992</v>
+        <v>-0.3962170254860258</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.08088829158068439</v>
+        <v>-0.08402235095259246</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.2285663479538437</v>
+        <v>-0.2179877528103187</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.1795031001066583</v>
+        <v>-0.1845509516566647</v>
       </c>
     </row>
     <row r="34">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-20.44274103449042</v>
+        <v>-20.55559632666799</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-20.16852866754985</v>
+        <v>-20.51610766674411</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-19.3166428355919</v>
+        <v>-19.19071620378395</v>
       </c>
     </row>
     <row r="36">
@@ -1128,13 +1128,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>-13.21909668842669</v>
+        <v>-12.93771296249948</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-11.12586961736011</v>
+        <v>-10.95590002037891</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-13.54890169929824</v>
+        <v>-13.65168615046579</v>
       </c>
     </row>
     <row r="37">
@@ -1162,13 +1162,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.2795441931569492</v>
+        <v>-0.2847304397210287</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.2990697708534423</v>
+        <v>-0.3041639405259913</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.2749702804217938</v>
+        <v>-0.2729048137656268</v>
       </c>
     </row>
     <row r="39">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>-0.188983395451946</v>
+        <v>-0.1869172092367919</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.1754078738069091</v>
+        <v>-0.1727550714991882</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.2000983801488108</v>
+        <v>-0.2015528401626942</v>
       </c>
     </row>
     <row r="40">
